--- a/TimeTables/MECH_Sem_5.xlsx
+++ b/TimeTables/MECH_Sem_5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -52,8 +52,15 @@
       <sz val="20"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -84,8 +91,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -105,7 +124,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -121,7 +140,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -131,6 +150,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -189,6 +221,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -261,36 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -312,13 +329,28 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -326,67 +358,111 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,73 +808,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.109375" customWidth="1" style="24" min="1" max="1"/>
-    <col width="31.5546875" customWidth="1" style="24" min="2" max="2"/>
-    <col width="34" customWidth="1" style="24" min="3" max="3"/>
-    <col width="32" customWidth="1" style="24" min="4" max="4"/>
-    <col width="37.109375" customWidth="1" style="24" min="5" max="5"/>
-    <col width="31.6640625" customWidth="1" style="24" min="6" max="6"/>
+    <col width="21.109375" customWidth="1" style="34" min="1" max="1"/>
+    <col width="31.5546875" customWidth="1" style="34" min="2" max="2"/>
+    <col width="34" customWidth="1" style="34" min="3" max="3"/>
+    <col width="32" customWidth="1" style="34" min="4" max="4"/>
+    <col width="37.109375" customWidth="1" style="34" min="5" max="5"/>
+    <col width="31.6640625" customWidth="1" style="34" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="31" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>TIMETABLE GENERATOR</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="31.8" customHeight="1" s="24"/>
-    <row r="3" ht="15" customHeight="1" s="24" thickBot="1"/>
-    <row r="4" ht="23.4" customHeight="1" s="24">
-      <c r="A4" s="17" t="inlineStr">
+    <row r="2" ht="31.8" customHeight="1" s="34"/>
+    <row r="3" ht="15" customHeight="1" s="34" thickBot="1"/>
+    <row r="4" ht="23.4" customHeight="1" s="34">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>DAY / TIME</t>
         </is>
       </c>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="F4" s="29" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" s="24" thickBot="1">
-      <c r="A5" s="15" t="n"/>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="30" t="n"/>
-    </row>
-    <row r="6" ht="15.6" customHeight="1" s="24">
-      <c r="A6" s="16" t="inlineStr">
+    <row r="5" ht="14.4" customHeight="1" s="34" thickBot="1">
+      <c r="A5" s="42" t="n"/>
+      <c r="B5" s="43" t="n"/>
+      <c r="C5" s="43" t="n"/>
+      <c r="D5" s="43" t="n"/>
+      <c r="E5" s="43" t="n"/>
+      <c r="F5" s="44" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1" s="34">
+      <c r="A6" s="45" t="inlineStr">
         <is>
           <t>9:00 AM - 10:00 AM</t>
         </is>
@@ -809,24 +885,24 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="4" t="n"/>
     </row>
-    <row r="7" ht="15.6" customHeight="1" s="24">
-      <c r="A7" s="14" t="n"/>
+    <row r="7" ht="15.6" customHeight="1" s="34">
+      <c r="A7" s="46" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="5" t="n"/>
     </row>
-    <row r="8" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A8" s="15" t="n"/>
+    <row r="8" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A8" s="42" t="n"/>
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
-    <row r="9" ht="15.6" customHeight="1" s="24">
-      <c r="A9" s="13" t="inlineStr">
+    <row r="9" ht="15.6" customHeight="1" s="34">
+      <c r="A9" s="47" t="inlineStr">
         <is>
           <t>10:00 AM - 11:00 AM</t>
         </is>
@@ -837,8 +913,8 @@
       <c r="E9" s="8" t="n"/>
       <c r="F9" s="9" t="n"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1" s="24">
-      <c r="A10" s="14" t="n"/>
+    <row r="10" ht="15.6" customHeight="1" s="34">
+      <c r="A10" s="46" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -861,16 +937,16 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A11" s="15" t="n"/>
+    <row r="11" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A11" s="42" t="n"/>
       <c r="B11" s="11" t="n"/>
       <c r="C11" s="11" t="n"/>
       <c r="D11" s="11" t="n"/>
       <c r="E11" s="11" t="n"/>
       <c r="F11" s="12" t="n"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1" s="24">
-      <c r="A12" s="16" t="inlineStr">
+    <row r="12" ht="15.6" customHeight="1" s="34">
+      <c r="A12" s="45" t="inlineStr">
         <is>
           <t>11:00 AM - 12:00 PM</t>
         </is>
@@ -881,8 +957,8 @@
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="4" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="24">
-      <c r="A13" s="14" t="n"/>
+    <row r="13" ht="15.6" customHeight="1" s="34">
+      <c r="A13" s="46" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -905,45 +981,45 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A14" s="15" t="n"/>
+    <row r="14" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A14" s="42" t="n"/>
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
     </row>
-    <row r="15">
-      <c r="A15" s="13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="34" thickBot="1">
+      <c r="A15" s="47" t="inlineStr">
         <is>
           <t>12:00 PM - 1:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="20" t="inlineStr">
+      <c r="B15" s="30" t="inlineStr">
         <is>
           <t>Lunch Break</t>
         </is>
       </c>
-      <c r="C15" s="21" t="n"/>
-      <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
-      <c r="F15" s="22" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="32" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="23" t="n"/>
-      <c r="F16" s="25" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="24" thickBot="1">
-      <c r="A17" s="15" t="n"/>
-      <c r="B17" s="26" t="n"/>
-      <c r="C17" s="27" t="n"/>
-      <c r="D17" s="27" t="n"/>
-      <c r="E17" s="27" t="n"/>
-      <c r="F17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15.6" customHeight="1" s="24">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A16" s="46" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="F16" s="35" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="34" thickBot="1">
+      <c r="A17" s="42" t="n"/>
+      <c r="B17" s="36" t="n"/>
+      <c r="C17" s="37" t="n"/>
+      <c r="D17" s="37" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="38" t="n"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1" s="34">
+      <c r="A18" s="45" t="inlineStr">
         <is>
           <t>1:00 PM - 2:00 PM</t>
         </is>
@@ -954,8 +1030,8 @@
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="4" t="n"/>
     </row>
-    <row r="19" ht="15.6" customHeight="1" s="24">
-      <c r="A19" s="14" t="n"/>
+    <row r="19" ht="15.6" customHeight="1" s="34">
+      <c r="A19" s="46" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -978,16 +1054,16 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A20" s="15" t="n"/>
+    <row r="20" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A20" s="42" t="n"/>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
     </row>
-    <row r="21" ht="15.6" customHeight="1" s="24">
-      <c r="A21" s="13" t="inlineStr">
+    <row r="21" ht="15.6" customHeight="1" s="34">
+      <c r="A21" s="47" t="inlineStr">
         <is>
           <t>2:00 PM - 3:00 PM</t>
         </is>
@@ -998,8 +1074,8 @@
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="9" t="n"/>
     </row>
-    <row r="22" ht="15.6" customHeight="1" s="24">
-      <c r="A22" s="14" t="n"/>
+    <row r="22" ht="15.6" customHeight="1" s="34">
+      <c r="A22" s="46" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>FM</t>
@@ -1026,16 +1102,16 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A23" s="15" t="n"/>
+    <row r="23" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A23" s="42" t="n"/>
       <c r="B23" s="11" t="n"/>
       <c r="C23" s="11" t="n"/>
       <c r="D23" s="11" t="n"/>
       <c r="E23" s="11" t="n"/>
       <c r="F23" s="12" t="n"/>
     </row>
-    <row r="24" ht="15.6" customHeight="1" s="24">
-      <c r="A24" s="16" t="inlineStr">
+    <row r="24" ht="15.6" customHeight="1" s="34">
+      <c r="A24" s="45" t="inlineStr">
         <is>
           <t>3:00 PM - 4:00 PM</t>
         </is>
@@ -1046,8 +1122,8 @@
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="4" t="n"/>
     </row>
-    <row r="25" ht="15.6" customHeight="1" s="24">
-      <c r="A25" s="14" t="n"/>
+    <row r="25" ht="15.6" customHeight="1" s="34">
+      <c r="A25" s="46" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>MD</t>
@@ -1070,16 +1146,16 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A26" s="15" t="n"/>
+    <row r="26" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A26" s="42" t="n"/>
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
     </row>
-    <row r="27" ht="15.6" customHeight="1" s="24">
-      <c r="A27" s="13" t="inlineStr">
+    <row r="27" ht="15.6" customHeight="1" s="34">
+      <c r="A27" s="47" t="inlineStr">
         <is>
           <t>4:00 PM - 5:00 PM</t>
         </is>
@@ -1090,25 +1166,209 @@
       <c r="E27" s="8" t="n"/>
       <c r="F27" s="9" t="n"/>
     </row>
-    <row r="28" ht="15.6" customHeight="1" s="24">
-      <c r="A28" s="14" t="n"/>
+    <row r="28" ht="15.6" customHeight="1" s="34">
+      <c r="A28" s="46" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="10" t="n"/>
     </row>
-    <row r="29" ht="16.2" customHeight="1" s="24" thickBot="1">
-      <c r="A29" s="15" t="n"/>
+    <row r="29" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A29" s="42" t="n"/>
       <c r="B29" s="11" t="n"/>
       <c r="C29" s="11" t="n"/>
       <c r="D29" s="11" t="n"/>
       <c r="E29" s="11" t="n"/>
       <c r="F29" s="12" t="n"/>
     </row>
+    <row r="32" ht="27.6" customHeight="1" s="34">
+      <c r="B32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - ID</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - NAME</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - INSTRUCTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="19.2" customHeight="1" s="34">
+      <c r="B33" s="14" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C33" s="14" t="inlineStr">
+        <is>
+          <t>Machine Design</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Ankit</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="34">
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>Fluid Machinery</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>Gautam</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="21.6" customHeight="1" s="34">
+      <c r="B35" s="14" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>Heat Transfer</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Lalit</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="17.4" customHeight="1" s="34">
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>TOM</t>
+        </is>
+      </c>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>Theory of Machines</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="inlineStr">
+        <is>
+          <t>Sankrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="19.8" customHeight="1" s="34">
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>MD - 1</t>
+        </is>
+      </c>
+      <c r="C37" s="14" t="inlineStr">
+        <is>
+          <t>Machine Design - 1</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Fakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="19.2" customHeight="1" s="34">
+      <c r="B38" s="15" t="inlineStr">
+        <is>
+          <t>HT LAB</t>
+        </is>
+      </c>
+      <c r="C38" s="15" t="inlineStr">
+        <is>
+          <t>Heat Transfer Lab</t>
+        </is>
+      </c>
+      <c r="D38" s="15" t="inlineStr">
+        <is>
+          <t>Ankit</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="34">
+      <c r="B39" s="14" t="inlineStr">
+        <is>
+          <t>TOM LAB</t>
+        </is>
+      </c>
+      <c r="C39" s="14" t="inlineStr">
+        <is>
+          <t>Theory of Machines Lab</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Gautam</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="19.2" customHeight="1" s="34">
+      <c r="B40" s="15" t="inlineStr">
+        <is>
+          <t>FM LAB</t>
+        </is>
+      </c>
+      <c r="C40" s="15" t="inlineStr">
+        <is>
+          <t>Fluid Machinery and Fluid Power Lab</t>
+        </is>
+      </c>
+      <c r="D40" s="15" t="inlineStr">
+        <is>
+          <t>Arthik</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="19.8" customHeight="1" s="34">
+      <c r="B41" s="14" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+      <c r="C41" s="14" t="inlineStr">
+        <is>
+          <t>Industrial Fluid Power Lab</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Sarwesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="19.8" customHeight="1" s="34">
+      <c r="B42" s="15" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="15" t="n"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" s="34">
+      <c r="B43" s="14" t="n"/>
+      <c r="C43" s="14" t="n"/>
+      <c r="D43" s="14" t="n"/>
+    </row>
+    <row r="44" ht="18.6" customHeight="1" s="34">
+      <c r="B44" s="15" t="n"/>
+      <c r="C44" s="15" t="n"/>
+      <c r="D44" s="15" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
@@ -1124,6 +1384,7 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TimeTables/MECH_Sem_5.xlsx
+++ b/TimeTables/MECH_Sem_5.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -928,12 +928,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>HT LAB</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
           <t>TOM LAB</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>HT LAB</t>
         </is>
       </c>
     </row>
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
+          <t>HT LAB</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>TOM LAB</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>HT LAB</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>FM</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>MD - 1</t>
+          <t>HT</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>HT</t>
+          <t>MD - 1</t>
         </is>
       </c>
     </row>
